--- a/HArray_Benchmarks.xlsx
+++ b/HArray_Benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="40" windowWidth="19100" windowHeight="6800" tabRatio="825" firstSheet="1" activeTab="16"/>
+    <workbookView xWindow="75" yWindow="45" windowWidth="19095" windowHeight="6795" tabRatio="825" firstSheet="1" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="43">
   <si>
     <t>std::map</t>
   </si>
@@ -151,12 +151,23 @@
   <si>
     <t>Hashtable</t>
   </si>
+  <si>
+    <t>Implementations</t>
+  </si>
+  <si>
+    <t>HArrayInt
+HArrayVarRAM</t>
+  </si>
+  <si>
+    <t>dense_hash_map
+unordered_map</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +207,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -384,7 +403,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,9 +411,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="4" applyBorder="1"/>
@@ -404,6 +420,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent4" xfId="4" builtinId="41"/>
@@ -678,25 +706,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="159388416"/>
-        <c:axId val="159389952"/>
+        <c:axId val="104406016"/>
+        <c:axId val="104420096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159388416"/>
+        <c:axId val="104406016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159389952"/>
+        <c:crossAx val="104420096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159389952"/>
+        <c:axId val="104420096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,20 +732,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159388416"/>
+        <c:crossAx val="104406016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -984,25 +1011,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127444096"/>
-        <c:axId val="127445632"/>
+        <c:axId val="131399040"/>
+        <c:axId val="131495040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127444096"/>
+        <c:axId val="131399040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127445632"/>
+        <c:crossAx val="131495040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127445632"/>
+        <c:axId val="131495040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,20 +1037,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127444096"/>
+        <c:crossAx val="131399040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1290,25 +1316,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="98000256"/>
-        <c:axId val="98002048"/>
+        <c:axId val="131439616"/>
+        <c:axId val="131441408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98000256"/>
+        <c:axId val="131439616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98002048"/>
+        <c:crossAx val="131441408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98002048"/>
+        <c:axId val="131441408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,20 +1342,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98000256"/>
+        <c:crossAx val="131439616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1596,25 +1621,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="158375296"/>
-        <c:axId val="158397568"/>
+        <c:axId val="131545728"/>
+        <c:axId val="131555712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158375296"/>
+        <c:axId val="131545728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158397568"/>
+        <c:crossAx val="131555712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158397568"/>
+        <c:axId val="131555712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,20 +1647,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158375296"/>
+        <c:crossAx val="131545728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1854,25 +1878,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95404800"/>
-        <c:axId val="95406336"/>
+        <c:axId val="131631360"/>
+        <c:axId val="131645440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95404800"/>
+        <c:axId val="131631360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95406336"/>
+        <c:crossAx val="131645440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95406336"/>
+        <c:axId val="131645440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,20 +1904,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95404800"/>
+        <c:crossAx val="131631360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2112,25 +2135,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97396992"/>
-        <c:axId val="97411072"/>
+        <c:axId val="131745664"/>
+        <c:axId val="131747200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97396992"/>
+        <c:axId val="131745664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97411072"/>
+        <c:crossAx val="131747200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97411072"/>
+        <c:axId val="131747200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,20 +2161,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97396992"/>
+        <c:crossAx val="131745664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2370,25 +2392,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="109051264"/>
-        <c:axId val="98579584"/>
+        <c:axId val="131696128"/>
+        <c:axId val="131697664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109051264"/>
+        <c:axId val="131696128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98579584"/>
+        <c:crossAx val="131697664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98579584"/>
+        <c:axId val="131697664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2396,20 +2418,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109051264"/>
+        <c:crossAx val="131696128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2628,25 +2649,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="108835584"/>
-        <c:axId val="108837120"/>
+        <c:axId val="131101824"/>
+        <c:axId val="131103360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108835584"/>
+        <c:axId val="131101824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108837120"/>
+        <c:crossAx val="131103360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108837120"/>
+        <c:axId val="131103360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,20 +2675,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108835584"/>
+        <c:crossAx val="131101824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2934,25 +2954,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="159107712"/>
-        <c:axId val="159410048"/>
+        <c:axId val="104454784"/>
+        <c:axId val="104460672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159107712"/>
+        <c:axId val="104454784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159410048"/>
+        <c:crossAx val="104460672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159410048"/>
+        <c:axId val="104460672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2960,20 +2980,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159107712"/>
+        <c:crossAx val="104454784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3240,25 +3259,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="91413888"/>
-        <c:axId val="91419776"/>
+        <c:axId val="130832640"/>
+        <c:axId val="130842624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91413888"/>
+        <c:axId val="130832640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91419776"/>
+        <c:crossAx val="130842624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91419776"/>
+        <c:axId val="130842624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3266,20 +3285,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91413888"/>
+        <c:crossAx val="130832640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3546,25 +3564,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="49538176"/>
-        <c:axId val="49539712"/>
+        <c:axId val="130869120"/>
+        <c:axId val="130870656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49538176"/>
+        <c:axId val="130869120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49539712"/>
+        <c:crossAx val="130870656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49539712"/>
+        <c:axId val="130870656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3572,20 +3590,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49538176"/>
+        <c:crossAx val="130869120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3852,25 +3869,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="91248896"/>
-        <c:axId val="91258880"/>
+        <c:axId val="130967040"/>
+        <c:axId val="130968576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91248896"/>
+        <c:axId val="130967040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91258880"/>
+        <c:crossAx val="130968576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91258880"/>
+        <c:axId val="130968576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3878,20 +3895,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91248896"/>
+        <c:crossAx val="130967040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4158,25 +4174,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="91340800"/>
-        <c:axId val="91342336"/>
+        <c:axId val="131015808"/>
+        <c:axId val="131017344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91340800"/>
+        <c:axId val="131015808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91342336"/>
+        <c:crossAx val="131017344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91342336"/>
+        <c:axId val="131017344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4184,20 +4200,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91340800"/>
+        <c:crossAx val="131015808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4464,25 +4479,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="109169664"/>
-        <c:axId val="127083264"/>
+        <c:axId val="131166976"/>
+        <c:axId val="131168512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109169664"/>
+        <c:axId val="131166976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127083264"/>
+        <c:crossAx val="131168512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127083264"/>
+        <c:axId val="131168512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4490,20 +4505,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109169664"/>
+        <c:crossAx val="131166976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4770,25 +4784,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127060224"/>
-        <c:axId val="109379584"/>
+        <c:axId val="131219840"/>
+        <c:axId val="131221376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127060224"/>
+        <c:axId val="131219840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109379584"/>
+        <c:crossAx val="131221376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109379584"/>
+        <c:axId val="131221376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4796,20 +4810,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127060224"/>
+        <c:crossAx val="131219840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5076,25 +5089,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127659392"/>
-        <c:axId val="127349888"/>
+        <c:axId val="131371008"/>
+        <c:axId val="131372544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127659392"/>
+        <c:axId val="131371008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127349888"/>
+        <c:crossAx val="131372544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127349888"/>
+        <c:axId val="131372544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5102,20 +5115,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127659392"/>
+        <c:crossAx val="131371008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5972,22 +5984,22 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -6111,22 +6123,22 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -6249,22 +6261,22 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -6387,22 +6399,22 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -6525,22 +6537,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -6625,22 +6637,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -6726,22 +6738,22 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -6828,22 +6840,22 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -6924,34 +6936,34 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="14"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -6960,12 +6972,12 @@
       <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -6974,12 +6986,12 @@
       <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6988,12 +7000,12 @@
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7002,12 +7014,12 @@
       <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -7016,12 +7028,12 @@
       <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7030,12 +7042,12 @@
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -7044,12 +7056,12 @@
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -7058,12 +7070,12 @@
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -7072,31 +7084,46 @@
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+    <row r="12" spans="1:4" ht="33" customHeight="1" thickBot="1">
+      <c r="A12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7108,22 +7135,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -7246,22 +7273,22 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -7384,22 +7411,22 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -7522,22 +7549,22 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -7660,22 +7687,22 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -7798,22 +7825,22 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -7936,22 +7963,22 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
@@ -8074,22 +8101,22 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
